--- a/medicine/Sexualité et sexologie/Sex_Friends/Sex_Friends.xlsx
+++ b/medicine/Sexualité et sexologie/Sex_Friends/Sex_Friends.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sex Friends ou Ça n’engage à rien au Québec[1] et au Nouveau-Brunswick (anglais : No Strings Attached) est une comédie romantique américaine réalisée par Ivan Reitman et sortie en 2011.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sex Friends ou Ça n’engage à rien au Québec et au Nouveau-Brunswick (anglais : No Strings Attached) est une comédie romantique américaine réalisée par Ivan Reitman et sortie en 2011.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam et Emma se sont rencontrés brièvement à plusieurs moments de leur vie. Un soir ivre, Adam se rend chez Emma. Au petit matin, il se réveille nu sur le canapé de celle-ci et fait la rencontre des colocataires d'Emma. Après des explications, ils finissent par avoir des relations sexuelles ensemble, devenant des sex friends. Ils décident par la suite de ne pas s’engager sentimentalement et de mettre en place des règles de conduites à respecter entre eux. Cependant, Adam finit par se rendre compte qu'il est amoureux d'elle et décide de lui en parler. Seulement Emma, qui s'est aussi aperçue de ses sentiments pour lui, refuse de les admettre et souhaite que la situation reste ainsi.
 Leur histoire va-t-elle avoir une véritable suite ?
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : No Strings Attached
@@ -562,16 +578,16 @@
 Coproduction : Ali Bell, Lisa Bruce
 Sociétés de production : Handsomecharlie Films, Paramount Pictures, Katalyst Films, Spyglass Entertainment, Cold Spring Pictures
 Société de distribution : Paramount Pictures
-Budget : 25 millions de dollars[2]
+Budget : 25 millions de dollars
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : couleur - 35 mm - 2,35:1 - son Dolby Digital
 Genre : comédie romantique
 Durée : 115 minutes
 Dates de sortie :
-États-Unis, Canada[1] : 21 janvier 2011
+États-Unis, Canada : 21 janvier 2011
 France : 16 février 2011
-Classification[3] :
+Classification :
 États-Unis : R - Restricted
 France : tous publics</t>
         </is>
@@ -601,7 +617,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Natalie Portman (VF : Sylvie Jacob) : Emma Kurtzman
 Ashton Kutcher (VF : Benjamin Pascal) : Adam Franklin
@@ -622,7 +640,7 @@
 Brian H. Dierker : Bones
 Matthew Moy : Chuck
 Ivan Reitman : le réalisateur de la série TV (caméo)
-Sources et légende : Version française (VF) sur RS Doublage[4] et AlloDoublage[5]</t>
+Sources et légende : Version française (VF) sur RS Doublage et AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -650,11 +668,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le scénario, écrit par Elizabeth Meriwether (en), est initialement développé sous le titre Friends with Benefits. Le titre sera finalement changé en raison d'un film au sujet similaire et portant déjà ce titre, Sexe entre amis de Will Gluck, sorti quelque temps plus tard. Ivan Reitman a été d'emblée séduit par le script : « Je me disais “voilà une histoire avec des personnages qui se retrouvent confrontés à un dilemme très actuel”. Des gens passionnants, drôles qui parlent franchement de sexe mais aussi d’amour : J’ai tout de suite adoré[6]. »
-Natalie Portman ne devait initialement participer au film qu'en tant que productrice, via sa société Handsomecharlie Films. Elle obtiendra finalement le rôle d'Emma[7].
-Le tournage a lieu principalement à Los Angeles[6], notamment dans les Paramount Studios ou dans les quartiers de Sherman Oaks, Pacific Palisades, Westwood et Los Feliz, ainsi qu'autour de l'installation Urban Light à proximité du musée d'Art du comté de L.A., mais également dans d'autres localités de Californie comme Santa Barbara, Pasadena, Culver City, Beverly Hills, Altadena, Marina Del Rey ou encore le Disney's Golden Oak Ranch[8]. Chose assez rare à Hollywood, la scénariste Elizabeth Meriwether a pu participer activement au tournage, notamment pour conseiller les acteurs. Elle raconte que « C’était incroyable d’avoir son mot à dire et d’être vraiment écoutée sur le plateau, qu’Ivan vienne me voir pour de nouvelles idées de répliques, ou pour me faire participer au processus de création d’une scène »[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le scénario, écrit par Elizabeth Meriwether (en), est initialement développé sous le titre Friends with Benefits. Le titre sera finalement changé en raison d'un film au sujet similaire et portant déjà ce titre, Sexe entre amis de Will Gluck, sorti quelque temps plus tard. Ivan Reitman a été d'emblée séduit par le script : « Je me disais “voilà une histoire avec des personnages qui se retrouvent confrontés à un dilemme très actuel”. Des gens passionnants, drôles qui parlent franchement de sexe mais aussi d’amour : J’ai tout de suite adoré. »
+Natalie Portman ne devait initialement participer au film qu'en tant que productrice, via sa société Handsomecharlie Films. Elle obtiendra finalement le rôle d'Emma.
+Le tournage a lieu principalement à Los Angeles, notamment dans les Paramount Studios ou dans les quartiers de Sherman Oaks, Pacific Palisades, Westwood et Los Feliz, ainsi qu'autour de l'installation Urban Light à proximité du musée d'Art du comté de L.A., mais également dans d'autres localités de Californie comme Santa Barbara, Pasadena, Culver City, Beverly Hills, Altadena, Marina Del Rey ou encore le Disney's Golden Oak Ranch. Chose assez rare à Hollywood, la scénariste Elizabeth Meriwether a pu participer activement au tournage, notamment pour conseiller les acteurs. Elle raconte que « C’était incroyable d’avoir son mot à dire et d’être vraiment écoutée sur le plateau, qu’Ivan vienne me voir pour de nouvelles idées de répliques, ou pour me faire participer au processus de création d’une scène ».
 </t>
         </is>
       </c>
@@ -683,7 +703,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La bande originale, rassemblant divers chansons présentes dans le film, sort le 15 février 2011 sur le label Lakeshore Records.
 </t>
@@ -716,11 +738,51 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-Lors de sa sortie en salles, Sex Friends rencontre un accueil mitigé dans la presse. Dans les pays anglophones, il obtient 49% d'avis favorables sur le site Rotten Tomatoes, sur la base de 173 commentaires collectés et une moyenne de 5,3⁄10[9]. Sur le site Metacritic, il décroche une moyenne de 50⁄100 pour 36 critiques[10]. Pour le consensus de Rotten Tomatoes, le film « bénéfice de la présence de Natalie Portman et de la main ferme d'Ivan Reitman, mais Sex Friends n'a pas le courage ou la conviction de donner suite à sa prémisse grivoise »[9]. En France, Sex Friends obtient également une réception critique mitigée, avec notamment une moyenne de 2,2⁄5 sur le site AlloCiné, sur la base de 16 critiques presse collectées[11].
-Box-office
-Sorti dans 3 018 salles aux États-Unis, Sex Friends prend directement la première place avec 19 652 921 $, pour une moyenne de 6 512 $ par salles le week-end de sa sortie[2], devenant ainsi le second meilleur démarrage dans la carrière d'Ivan Reitman[12]. Bien que connaissant une baisse des bénéfices, il reste par la suite durant quatre semaines consécutives dans le top 10 hebdomadaire, avec un cumul de 67 309 389 $[2]. L'exploitation en salles de Sex Friends se termine le 7 avril 2011, lors de sa onzième semaine avec un résultat de 70 662 220 $, soit un taux de rentabilité de 47,4%[2].
-À l'international, il enregistre 78 565 857 $, à peine plus que les recettes américaines, soit un taux de rentabilité de 52,6 %, lui permettant de cumuler 149 228 077 $ de recettes mondiales[2]. C'est en France que le film obtient un énorme succès dans un pays étranger : il démarre en septième position au box-office la semaine de sa sortie avec 395 113 entrées dans 301 salles[13] et se maintient durant les quatre semaines suivantes dans le top 20 hebdomadaire, en ayant engrangé 931 427 entrées[13], soit 8 154 245 $ de recettes[2].
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa sortie en salles, Sex Friends rencontre un accueil mitigé dans la presse. Dans les pays anglophones, il obtient 49% d'avis favorables sur le site Rotten Tomatoes, sur la base de 173 commentaires collectés et une moyenne de 5,3⁄10. Sur le site Metacritic, il décroche une moyenne de 50⁄100 pour 36 critiques. Pour le consensus de Rotten Tomatoes, le film « bénéfice de la présence de Natalie Portman et de la main ferme d'Ivan Reitman, mais Sex Friends n'a pas le courage ou la conviction de donner suite à sa prémisse grivoise ». En France, Sex Friends obtient également une réception critique mitigée, avec notamment une moyenne de 2,2⁄5 sur le site AlloCiné, sur la base de 16 critiques presse collectées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sex_Friends</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex_Friends</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorti dans 3 018 salles aux États-Unis, Sex Friends prend directement la première place avec 19 652 921 $, pour une moyenne de 6 512 $ par salles le week-end de sa sortie, devenant ainsi le second meilleur démarrage dans la carrière d'Ivan Reitman. Bien que connaissant une baisse des bénéfices, il reste par la suite durant quatre semaines consécutives dans le top 10 hebdomadaire, avec un cumul de 67 309 389 $. L'exploitation en salles de Sex Friends se termine le 7 avril 2011, lors de sa onzième semaine avec un résultat de 70 662 220 $, soit un taux de rentabilité de 47,4%.
+À l'international, il enregistre 78 565 857 $, à peine plus que les recettes américaines, soit un taux de rentabilité de 52,6 %, lui permettant de cumuler 149 228 077 $ de recettes mondiales. C'est en France que le film obtient un énorme succès dans un pays étranger : il démarre en septième position au box-office la semaine de sa sortie avec 395 113 entrées dans 301 salles et se maintient durant les quatre semaines suivantes dans le top 20 hebdomadaire, en ayant engrangé 931 427 entrées, soit 8 154 245 $ de recettes.
 </t>
         </is>
       </c>
